--- a/biology/Médecine/Biopôle_Clermont-Limagne/Biopôle_Clermont-Limagne.xlsx
+++ b/biology/Médecine/Biopôle_Clermont-Limagne/Biopôle_Clermont-Limagne.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Biop%C3%B4le_Clermont-Limagne</t>
+          <t>Biopôle_Clermont-Limagne</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le Biopôle Clermont-Limagne est un technopôle pour l'accompagnement des entreprises innovantes dans le domaine des biotechnologies et des Sciences du vivant. Initialement situé sur la commune de Saint-Beauzire, en Auvergne, il  compte désormais 2 autres sites : à Riom et à Clermont-Ferrand[1]. 
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le Biopôle Clermont-Limagne est un technopôle pour l'accompagnement des entreprises innovantes dans le domaine des biotechnologies et des Sciences du vivant. Initialement situé sur la commune de Saint-Beauzire, en Auvergne, il  compte désormais 2 autres sites : à Riom et à Clermont-Ferrand. 
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Biop%C3%B4le_Clermont-Limagne</t>
+          <t>Biopôle_Clermont-Limagne</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,10 +523,12 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il a été créé en 1995 à l'initiative de la Communauté de communes de Limagne d'Ennezat. Il est historiquement le premier pôle d'excellence en France[2] dédié aux biotechnologies et sciences du vivant. 
-En 2020, il abrite une quarantaine d'entreprises[3], dont Limagrain, METabolic EXplorer, Carbios, Cyclopharma, Greentech, BioFilm Control, Biovitis, etc.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il a été créé en 1995 à l'initiative de la Communauté de communes de Limagne d'Ennezat. Il est historiquement le premier pôle d'excellence en France dédié aux biotechnologies et sciences du vivant. 
+En 2020, il abrite une quarantaine d'entreprises, dont Limagrain, METabolic EXplorer, Carbios, Cyclopharma, Greentech, BioFilm Control, Biovitis, etc.
 </t>
         </is>
       </c>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Biop%C3%B4le_Clermont-Limagne</t>
+          <t>Biopôle_Clermont-Limagne</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,7 +557,9 @@
           <t>Activités</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Le Biopôle Clermont-Limagne est une pépinière d'entreprises et aide des porteurs de projets ou de jeunes entreprises à s'installer. Il accueille notamment un des Incubateurs d'entreprises innovantes liés à la recherche publique, « BUSI incubateur d'entreprises d’Auvergne ». 
 Il vise également à regrouper des PME du même secteur, celui des Sciences du vivant, depuis la Recherche et Développement jusqu'à la production.  
@@ -558,7 +574,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Biop%C3%B4le_Clermont-Limagne</t>
+          <t>Biopôle_Clermont-Limagne</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -576,7 +592,9 @@
           <t>Référence</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">
 ↑ Article dans La Montagne - 19 septembre 2018
@@ -592,7 +610,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Biop%C3%B4le_Clermont-Limagne</t>
+          <t>Biopôle_Clermont-Limagne</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -610,7 +628,9 @@
           <t>Lien externe</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Site officiel
  Portail du Puy-de-Dôme   Portail de la biologie   Portail de la médecine                   </t>
